--- a/ai/assets/textbook/pinyin/20210907.xlsx
+++ b/ai/assets/textbook/pinyin/20210907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\pinyin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C56A9E-7992-4C4D-87F7-191697D13160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E319DCC-D528-4F43-B148-04539FB5CF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28455" yWindow="525" windowWidth="26850" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28110" yWindow="870" windowWidth="26850" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="708">
   <si>
     <t>发言内容</t>
   </si>
@@ -139,16 +139,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卫众</t>
-  </si>
-  <si>
     <t>大不比 用苹楧来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苹楧</t>
-  </si>
-  <si>
     <t>女子 油~对了记</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>楧找</t>
-  </si>
-  <si>
     <t>不会玩的 找 力集可爱</t>
   </si>
   <si>
@@ -194,16 +185,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打出来因</t>
-  </si>
-  <si>
     <t>牛卡飞~用打字的手法打出它的因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出它的因</t>
-  </si>
-  <si>
     <t>加 ~回踩唐~连红</t>
   </si>
   <si>
@@ -264,9 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>那个苹</t>
-  </si>
-  <si>
     <t>可花波~用打字的手法打出它的因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,9 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>危公</t>
-  </si>
-  <si>
     <t>危众~连路红~连红！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,9 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灰是连</t>
-  </si>
-  <si>
     <t>克播抗  用苹楧来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,16 +389,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打鹰就行</t>
-  </si>
-  <si>
     <t>沩是～玩单西～佰分佰贏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沩是</t>
-  </si>
-  <si>
     <t>沩萍～碗但西～佰分佰贏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,9 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胃众</t>
-  </si>
-  <si>
     <t>英 丽吉可爱</t>
   </si>
   <si>
@@ -527,23 +494,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看字楧</t>
-  </si>
-  <si>
     <t>帮可达   看字楧来苹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>楧来苹</t>
-  </si>
-  <si>
     <t>桅众~连  路  红~连赢！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>桅众</t>
-  </si>
-  <si>
     <t>谈郎吧~想回的来！</t>
   </si>
   <si>
@@ -616,9 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>慰萍</t>
-  </si>
-  <si>
     <t>撩~多台厅~连赢</t>
   </si>
   <si>
@@ -1506,15 +1461,6 @@
     <t>你们玩吧</t>
   </si>
   <si>
-    <t>&lt;msg&gt;&lt;yplv&gt;0&lt;/yplv&gt;&lt;lv&gt;12&lt;/lv&gt;&lt;isAnchorPlatformMsg&gt;1&lt;/isAnchorPlatformMsg&gt;&lt;dt&gt;6-10-5-28&lt;/dt&gt;写报告我也会&lt;/msg&gt;</t>
-  </si>
-  <si>
-    <t>&lt;msg&gt;&lt;yplv&gt;0&lt;/yplv&gt;&lt;lv&gt;12&lt;/lv&gt;&lt;isAnchorPlatformMsg&gt;1&lt;/isAnchorPlatformMsg&gt;&lt;dt&gt;6-10-5-28&lt;/dt&gt;我教你&lt;/msg&gt;</t>
-  </si>
-  <si>
-    <t>&lt;msg&gt;&lt;yplv&gt;0&lt;/yplv&gt;&lt;lv&gt;12&lt;/lv&gt;&lt;isAnchorPlatformMsg&gt;1&lt;/isAnchorPlatformMsg&gt;&lt;dt&gt;6-10-5-28&lt;/dt&gt;我教你写&lt;/msg&gt;</t>
-  </si>
-  <si>
     <t>&lt;msg&gt;&lt;yplv&gt;1&lt;/yplv&gt;&lt;dt&gt;1-10-5-28&lt;/dt&gt;排队快来了&lt;isAnchorPlatformMsg&gt;0&lt;/isAnchorPlatformMsg&gt;&lt;/msg&gt;</t>
   </si>
   <si>
@@ -2209,6 +2155,82 @@
   </si>
   <si>
     <t>搞错了</t>
+  </si>
+  <si>
+    <t>卫众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹楧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楧找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出来因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出它的因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危 是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那个苹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰是连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打鹰就行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沩是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看字楧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楧来苹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桅众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慰萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2578,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E683"/>
+  <dimension ref="A1:E680"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="A440" sqref="A440:XFD442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2739,7 +2761,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2751,7 +2773,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2763,7 +2785,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2775,7 +2797,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2787,7 +2809,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2799,7 +2821,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -2811,7 +2833,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -3025,12 +3047,12 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3039,12 +3061,12 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3055,7 +3077,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3066,7 +3088,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3077,7 +3099,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3088,7 +3110,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3099,7 +3121,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3108,12 +3130,12 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>691</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3124,7 +3146,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3135,7 +3157,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3146,7 +3168,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3157,7 +3179,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3166,12 +3188,12 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3180,12 +3202,12 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3196,7 +3218,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3207,7 +3229,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3218,7 +3240,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3229,7 +3251,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3240,7 +3262,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3251,7 +3273,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3262,7 +3284,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3273,7 +3295,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3284,7 +3306,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3293,12 +3315,12 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3307,12 +3329,12 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3321,12 +3343,12 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3335,12 +3357,12 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3349,12 +3371,12 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3363,12 +3385,12 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3377,12 +3399,12 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3391,12 +3413,12 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3405,12 +3427,12 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3419,12 +3441,12 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3433,12 +3455,12 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>84</v>
+        <v>696</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3447,12 +3469,12 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3461,12 +3483,12 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3475,12 +3497,12 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>90</v>
+        <v>697</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3489,12 +3511,12 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -3503,12 +3525,12 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -3517,12 +3539,12 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3531,12 +3553,12 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3545,12 +3567,12 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3559,12 +3581,12 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3575,7 +3597,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3586,7 +3608,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3597,7 +3619,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3608,7 +3630,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3619,7 +3641,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3630,7 +3652,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3641,7 +3663,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3652,7 +3674,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3663,7 +3685,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3672,12 +3694,12 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>698</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -3686,12 +3708,12 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -3702,7 +3724,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -3711,12 +3733,12 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>112</v>
+        <v>699</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -3725,12 +3747,12 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -3741,7 +3763,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -3752,7 +3774,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -3761,12 +3783,12 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>117</v>
+        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -3775,12 +3797,12 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>119</v>
+        <v>701</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3789,12 +3811,12 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3805,7 +3827,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3816,7 +3838,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -3827,7 +3849,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3838,7 +3860,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3849,7 +3871,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3860,7 +3882,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -3871,7 +3893,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3880,12 +3902,12 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3894,12 +3916,12 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3910,7 +3932,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3919,12 +3941,12 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>139</v>
+        <v>702</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3933,12 +3955,12 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3947,12 +3969,12 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3963,7 +3985,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3972,12 +3994,12 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3986,12 +4008,12 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -4000,12 +4022,12 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>146</v>
+        <v>703</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4016,7 +4038,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -4027,7 +4049,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -4038,7 +4060,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4047,12 +4069,12 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>151</v>
+        <v>704</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4061,12 +4083,12 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>153</v>
+        <v>705</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4075,12 +4097,12 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>155</v>
+        <v>706</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -4091,7 +4113,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -4102,7 +4124,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4113,7 +4135,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -4124,7 +4146,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -4135,7 +4157,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -4146,7 +4168,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4157,7 +4179,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4168,7 +4190,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4179,7 +4201,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4190,7 +4212,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4201,7 +4223,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -4212,7 +4234,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4221,12 +4243,12 @@
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>44</v>
+        <v>691</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4235,12 +4257,12 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4249,12 +4271,12 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4263,12 +4285,12 @@
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4279,7 +4301,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4290,7 +4312,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -4301,7 +4323,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4312,7 +4334,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -4323,7 +4345,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -4332,12 +4354,12 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>178</v>
+        <v>707</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -4348,7 +4370,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4359,7 +4381,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -4370,7 +4392,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -4381,7 +4403,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4392,7 +4414,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4403,7 +4425,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -4414,7 +4436,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4425,7 +4447,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4436,7 +4458,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4447,7 +4469,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -4458,7 +4480,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4469,7 +4491,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4480,7 +4502,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4491,7 +4513,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4502,7 +4524,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4513,7 +4535,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -4524,7 +4546,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4535,7 +4557,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -4546,7 +4568,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4557,7 +4579,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -4568,7 +4590,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -4579,7 +4601,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -4590,7 +4612,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4601,7 +4623,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -4612,7 +4634,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4623,7 +4645,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4634,7 +4656,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4645,7 +4667,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -4656,7 +4678,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -4667,7 +4689,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -4678,7 +4700,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -4689,7 +4711,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4700,7 +4722,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4711,7 +4733,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -4722,7 +4744,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -4733,7 +4755,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -4744,7 +4766,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -4755,7 +4777,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4766,7 +4788,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4777,7 +4799,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -4788,7 +4810,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -4799,7 +4821,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -4810,7 +4832,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4821,7 +4843,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4832,7 +4854,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4843,7 +4865,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4854,7 +4876,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -4865,7 +4887,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -4876,7 +4898,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4887,7 +4909,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4898,7 +4920,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -4909,7 +4931,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -4920,7 +4942,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4931,7 +4953,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -4942,7 +4964,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -4953,7 +4975,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4964,7 +4986,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4975,7 +4997,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -4986,7 +5008,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -4997,7 +5019,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -5008,7 +5030,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5019,7 +5041,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5030,7 +5052,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5041,7 +5063,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5052,7 +5074,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5063,7 +5085,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5074,7 +5096,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -5082,7 +5104,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -5090,7 +5112,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -5098,7 +5120,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -5106,7 +5128,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -5114,7 +5136,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -5122,7 +5144,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -5130,7 +5152,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -5138,7 +5160,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -5146,7 +5168,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -5154,7 +5176,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -5162,7 +5184,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -5170,7 +5192,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -5178,7 +5200,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -5186,7 +5208,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -5194,7 +5216,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -5202,7 +5224,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -5210,7 +5232,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -5218,7 +5240,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -5226,7 +5248,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -5234,7 +5256,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -5242,7 +5264,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -5250,7 +5272,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -5258,7 +5280,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -5266,7 +5288,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -5274,7 +5296,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -5282,7 +5304,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -5290,7 +5312,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -5298,7 +5320,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -5306,7 +5328,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -5314,7 +5336,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -5322,7 +5344,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -5330,7 +5352,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -5338,7 +5360,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -5346,7 +5368,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -5354,7 +5376,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -5362,7 +5384,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -5370,7 +5392,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -5378,7 +5400,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -5386,7 +5408,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -5394,7 +5416,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -5402,7 +5424,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -5410,7 +5432,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -5418,7 +5440,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -5426,7 +5448,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -5434,7 +5456,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -5442,7 +5464,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -5450,7 +5472,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -5458,7 +5480,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -5466,7 +5488,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -5474,7 +5496,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -5482,7 +5504,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -5490,7 +5512,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -5498,7 +5520,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -5506,7 +5528,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -5514,7 +5536,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -5522,7 +5544,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -5530,7 +5552,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -5538,7 +5560,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -5546,7 +5568,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -5554,7 +5576,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -5562,7 +5584,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -5570,7 +5592,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -5578,7 +5600,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -5586,7 +5608,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -5594,7 +5616,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -5602,7 +5624,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -5610,7 +5632,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -5618,7 +5640,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -5626,7 +5648,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -5634,7 +5656,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -5642,7 +5664,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -5650,7 +5672,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -5658,7 +5680,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -5666,7 +5688,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -5674,7 +5696,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -5682,7 +5704,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -5690,7 +5712,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -5698,7 +5720,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -5706,7 +5728,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -5714,7 +5736,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -5722,7 +5744,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -5730,7 +5752,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -5738,7 +5760,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -5746,7 +5768,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -5754,7 +5776,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -5762,7 +5784,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -5770,7 +5792,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -5778,7 +5800,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -5786,7 +5808,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -5794,7 +5816,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -5802,7 +5824,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -5810,7 +5832,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -5818,7 +5840,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -5826,7 +5848,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -5834,7 +5856,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -5842,7 +5864,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -5850,7 +5872,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -5858,7 +5880,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -5866,7 +5888,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -5874,7 +5896,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -5882,7 +5904,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -5890,7 +5912,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -5898,7 +5920,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -5906,7 +5928,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -5914,7 +5936,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -5922,7 +5944,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -5930,7 +5952,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -5938,7 +5960,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -5946,7 +5968,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -5954,7 +5976,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -5962,7 +5984,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -5970,7 +5992,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -5978,7 +6000,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -5986,7 +6008,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -5994,7 +6016,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -6002,7 +6024,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -6010,7 +6032,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -6018,7 +6040,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -6026,7 +6048,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -6034,7 +6056,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -6042,7 +6064,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -6050,7 +6072,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -6058,7 +6080,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -6066,7 +6088,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -6074,7 +6096,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -6082,7 +6104,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -6090,7 +6112,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -6098,7 +6120,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -6106,7 +6128,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -6114,7 +6136,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -6122,7 +6144,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -6130,7 +6152,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -6138,7 +6160,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -6146,7 +6168,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -6154,7 +6176,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -6162,7 +6184,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -6170,7 +6192,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -6178,7 +6200,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -6186,7 +6208,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -6194,7 +6216,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -6202,7 +6224,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -6210,7 +6232,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -6218,7 +6240,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -6226,7 +6248,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -6234,7 +6256,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -6242,7 +6264,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -6250,7 +6272,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -6258,7 +6280,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -6266,7 +6288,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -6274,7 +6296,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -6282,7 +6304,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -6290,7 +6312,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -6298,7 +6320,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -6306,7 +6328,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -6314,7 +6336,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -6322,7 +6344,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -6330,7 +6352,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -6338,7 +6360,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -6346,7 +6368,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -6354,7 +6376,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -6362,7 +6384,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -6370,7 +6392,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -6378,7 +6400,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -6386,7 +6408,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -6394,7 +6416,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -6402,7 +6424,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -6410,7 +6432,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -6418,7 +6440,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -6426,7 +6448,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -6434,7 +6456,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -6442,7 +6464,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -6450,7 +6472,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -6458,7 +6480,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -6466,7 +6488,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -6474,7 +6496,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -6482,7 +6504,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -6490,7 +6512,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -6498,7 +6520,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -6506,7 +6528,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -6514,7 +6536,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -6522,7 +6544,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -6530,7 +6552,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -6538,7 +6560,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -6546,7 +6568,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -6554,7 +6576,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -6562,7 +6584,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -6570,7 +6592,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -6578,7 +6600,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -6586,7 +6608,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -6594,7 +6616,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -6602,7 +6624,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -6610,7 +6632,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -6618,7 +6640,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -6626,7 +6648,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -6634,7 +6656,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -6642,7 +6664,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -6650,7 +6672,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -6658,7 +6680,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -6666,7 +6688,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -6674,7 +6696,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -6682,7 +6704,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -6690,7 +6712,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -6698,7 +6720,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -6706,7 +6728,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -6714,7 +6736,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -6722,7 +6744,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -6730,7 +6752,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -6738,7 +6760,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -6746,7 +6768,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -6754,7 +6776,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -6762,7 +6784,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -6770,7 +6792,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -6778,7 +6800,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -6786,7 +6808,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -6794,7 +6816,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -6802,7 +6824,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -6810,7 +6832,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -6818,7 +6840,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -6826,7 +6848,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -6834,7 +6856,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -6842,7 +6864,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -6850,7 +6872,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -6858,7 +6880,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -6866,7 +6888,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -6874,7 +6896,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -6882,7 +6904,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -6890,7 +6912,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B438">
         <v>0</v>
@@ -6898,7 +6920,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -6906,7 +6928,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -6914,7 +6936,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -6922,7 +6944,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -6930,7 +6952,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -6938,7 +6960,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B444">
         <v>0</v>
@@ -6946,7 +6968,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B445">
         <v>0</v>
@@ -6954,7 +6976,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>478</v>
+        <v>341</v>
       </c>
       <c r="B446">
         <v>0</v>
@@ -6962,7 +6984,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B447">
         <v>0</v>
@@ -6970,7 +6992,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B448">
         <v>0</v>
@@ -6978,7 +7000,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>356</v>
+        <v>465</v>
       </c>
       <c r="B449">
         <v>0</v>
@@ -6986,7 +7008,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>481</v>
+        <v>235</v>
       </c>
       <c r="B450">
         <v>0</v>
@@ -6994,7 +7016,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B451">
         <v>0</v>
@@ -7002,7 +7024,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B452">
         <v>0</v>
@@ -7010,7 +7032,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>250</v>
+        <v>468</v>
       </c>
       <c r="B453">
         <v>0</v>
@@ -7018,7 +7040,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B454">
         <v>0</v>
@@ -7026,7 +7048,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B455">
         <v>0</v>
@@ -7034,7 +7056,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B456">
         <v>0</v>
@@ -7042,7 +7064,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B457">
         <v>0</v>
@@ -7050,7 +7072,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B458">
         <v>0</v>
@@ -7058,7 +7080,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B459">
         <v>0</v>
@@ -7066,7 +7088,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B460">
         <v>0</v>
@@ -7074,7 +7096,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B461">
         <v>0</v>
@@ -7082,7 +7104,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B462">
         <v>0</v>
@@ -7090,7 +7112,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B463">
         <v>0</v>
@@ -7098,7 +7120,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B464">
         <v>0</v>
@@ -7106,7 +7128,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B465">
         <v>0</v>
@@ -7114,7 +7136,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B466">
         <v>0</v>
@@ -7122,7 +7144,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B467">
         <v>0</v>
@@ -7130,7 +7152,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="B468">
         <v>0</v>
@@ -7138,7 +7160,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B469">
         <v>0</v>
@@ -7146,7 +7168,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>500</v>
+        <v>447</v>
       </c>
       <c r="B470">
         <v>0</v>
@@ -7154,7 +7176,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B471">
         <v>0</v>
@@ -7162,7 +7184,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B472">
         <v>0</v>
@@ -7170,7 +7192,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="B473">
         <v>0</v>
@@ -7178,7 +7200,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -7186,7 +7208,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -7194,7 +7216,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B476">
         <v>0</v>
@@ -7202,7 +7224,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B477">
         <v>0</v>
@@ -7210,7 +7232,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -7218,7 +7240,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B479">
         <v>0</v>
@@ -7226,7 +7248,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B480">
         <v>0</v>
@@ -7234,7 +7256,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B481">
         <v>0</v>
@@ -7242,7 +7264,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="B482">
         <v>0</v>
@@ -7250,7 +7272,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B483">
         <v>0</v>
@@ -7258,7 +7280,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B484">
         <v>0</v>
@@ -7266,7 +7288,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B485">
         <v>0</v>
@@ -7274,7 +7296,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B486">
         <v>0</v>
@@ -7282,7 +7304,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="B487">
         <v>0</v>
@@ -7290,7 +7312,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="B488">
         <v>0</v>
@@ -7298,7 +7320,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B489">
         <v>0</v>
@@ -7306,7 +7328,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B490">
         <v>0</v>
@@ -7314,7 +7336,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B491">
         <v>0</v>
@@ -7322,7 +7344,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B492">
         <v>0</v>
@@ -7330,7 +7352,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B493">
         <v>0</v>
@@ -7338,7 +7360,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B494">
         <v>0</v>
@@ -7346,7 +7368,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B495">
         <v>0</v>
@@ -7354,7 +7376,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B496">
         <v>0</v>
@@ -7362,7 +7384,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B497">
         <v>0</v>
@@ -7370,7 +7392,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B498">
         <v>0</v>
@@ -7378,7 +7400,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B499">
         <v>0</v>
@@ -7386,7 +7408,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="B500">
         <v>0</v>
@@ -7394,7 +7416,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="B501">
         <v>0</v>
@@ -7402,7 +7424,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B502">
         <v>0</v>
@@ -7410,7 +7432,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B503">
         <v>0</v>
@@ -7418,7 +7440,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B504">
         <v>0</v>
@@ -7426,7 +7448,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="B505">
         <v>0</v>
@@ -7434,7 +7456,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B506">
         <v>0</v>
@@ -7442,7 +7464,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B507">
         <v>0</v>
@@ -7450,7 +7472,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B508">
         <v>0</v>
@@ -7458,7 +7480,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B509">
         <v>0</v>
@@ -7466,7 +7488,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>539</v>
+        <v>458</v>
       </c>
       <c r="B510">
         <v>0</v>
@@ -7474,7 +7496,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B511">
         <v>0</v>
@@ -7482,7 +7504,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B512">
         <v>0</v>
@@ -7490,7 +7512,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="B513">
         <v>0</v>
@@ -7498,7 +7520,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="B514">
         <v>0</v>
@@ -7506,7 +7528,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B515">
         <v>0</v>
@@ -7514,7 +7536,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="B516">
         <v>0</v>
@@ -7522,7 +7544,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>545</v>
+        <v>259</v>
       </c>
       <c r="B517">
         <v>0</v>
@@ -7530,7 +7552,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B518">
         <v>0</v>
@@ -7538,7 +7560,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="B519">
         <v>0</v>
@@ -7546,7 +7568,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>274</v>
+        <v>532</v>
       </c>
       <c r="B520">
         <v>0</v>
@@ -7554,7 +7576,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B521">
         <v>0</v>
@@ -7562,7 +7584,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="B522">
         <v>0</v>
@@ -7570,7 +7592,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="B523">
         <v>0</v>
@@ -7578,7 +7600,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B524">
         <v>0</v>
@@ -7586,7 +7608,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="B525">
         <v>0</v>
@@ -7594,7 +7616,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="B526">
         <v>0</v>
@@ -7602,7 +7624,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="B527">
         <v>0</v>
@@ -7610,7 +7632,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B528">
         <v>0</v>
@@ -7618,7 +7640,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B529">
         <v>0</v>
@@ -7626,7 +7648,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B530">
         <v>0</v>
@@ -7634,7 +7656,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="B531">
         <v>0</v>
@@ -7642,7 +7664,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="B532">
         <v>0</v>
@@ -7650,7 +7672,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="B533">
         <v>0</v>
@@ -7658,7 +7680,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="B534">
         <v>0</v>
@@ -7666,7 +7688,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="B535">
         <v>0</v>
@@ -7674,7 +7696,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="B536">
         <v>0</v>
@@ -7682,7 +7704,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="B537">
         <v>0</v>
@@ -7690,7 +7712,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B538">
         <v>0</v>
@@ -7698,7 +7720,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="B539">
         <v>0</v>
@@ -7706,7 +7728,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="B540">
         <v>0</v>
@@ -7714,7 +7736,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="B541">
         <v>0</v>
@@ -7722,7 +7744,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="B542">
         <v>0</v>
@@ -7730,7 +7752,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="B543">
         <v>0</v>
@@ -7738,7 +7760,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="B544">
         <v>0</v>
@@ -7746,7 +7768,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="B545">
         <v>0</v>
@@ -7754,7 +7776,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B546">
         <v>0</v>
@@ -7762,7 +7784,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B547">
         <v>0</v>
@@ -7770,7 +7792,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="B548">
         <v>0</v>
@@ -7778,7 +7800,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="B549">
         <v>0</v>
@@ -7786,7 +7808,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B550">
         <v>0</v>
@@ -7794,7 +7816,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B551">
         <v>0</v>
@@ -7802,7 +7824,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="B552">
         <v>0</v>
@@ -7810,7 +7832,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="B553">
         <v>0</v>
@@ -7818,7 +7840,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="B554">
         <v>0</v>
@@ -7826,7 +7848,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B555">
         <v>0</v>
@@ -7834,7 +7856,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="B556">
         <v>0</v>
@@ -7842,7 +7864,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="B557">
         <v>0</v>
@@ -7850,7 +7872,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B558">
         <v>0</v>
@@ -7858,7 +7880,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B559">
         <v>0</v>
@@ -7866,7 +7888,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B560">
         <v>0</v>
@@ -7874,7 +7896,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="B561">
         <v>0</v>
@@ -7882,7 +7904,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B562">
         <v>0</v>
@@ -7890,7 +7912,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B563">
         <v>0</v>
@@ -7898,7 +7920,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="B564">
         <v>0</v>
@@ -7906,7 +7928,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B565">
         <v>0</v>
@@ -7914,7 +7936,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B566">
         <v>0</v>
@@ -7922,7 +7944,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="B567">
         <v>0</v>
@@ -7930,7 +7952,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B568">
         <v>0</v>
@@ -7938,7 +7960,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="B569">
         <v>0</v>
@@ -7946,7 +7968,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="B570">
         <v>0</v>
@@ -7954,7 +7976,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="B571">
         <v>0</v>
@@ -7962,7 +7984,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="B572">
         <v>0</v>
@@ -7970,7 +7992,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="B573">
         <v>0</v>
@@ -7978,7 +8000,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="B574">
         <v>0</v>
@@ -7986,7 +8008,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B575">
         <v>0</v>
@@ -7994,7 +8016,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="B576">
         <v>0</v>
@@ -8002,7 +8024,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B577">
         <v>0</v>
@@ -8010,7 +8032,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="B578">
         <v>0</v>
@@ -8018,7 +8040,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="B579">
         <v>0</v>
@@ -8026,7 +8048,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="B580">
         <v>0</v>
@@ -8034,7 +8056,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="B581">
         <v>0</v>
@@ -8042,7 +8064,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="B582">
         <v>0</v>
@@ -8050,7 +8072,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="B583">
         <v>0</v>
@@ -8058,7 +8080,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B584">
         <v>0</v>
@@ -8066,7 +8088,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="B585">
         <v>0</v>
@@ -8074,7 +8096,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="B586">
         <v>0</v>
@@ -8082,7 +8104,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="B587">
         <v>0</v>
@@ -8090,7 +8112,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="B588">
         <v>0</v>
@@ -8098,7 +8120,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="B589">
         <v>0</v>
@@ -8106,7 +8128,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="B590">
         <v>0</v>
@@ -8114,7 +8136,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="B591">
         <v>0</v>
@@ -8122,7 +8144,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="B592">
         <v>0</v>
@@ -8130,7 +8152,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="B593">
         <v>0</v>
@@ -8138,7 +8160,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="B594">
         <v>0</v>
@@ -8146,7 +8168,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="B595">
         <v>0</v>
@@ -8154,7 +8176,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B596">
         <v>0</v>
@@ -8162,7 +8184,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="B597">
         <v>0</v>
@@ -8170,7 +8192,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="B598">
         <v>0</v>
@@ -8178,7 +8200,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="B599">
         <v>0</v>
@@ -8186,7 +8208,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="B600">
         <v>0</v>
@@ -8194,7 +8216,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B601">
         <v>0</v>
@@ -8202,7 +8224,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>625</v>
+        <v>259</v>
       </c>
       <c r="B602">
         <v>0</v>
@@ -8210,7 +8232,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="B603">
         <v>0</v>
@@ -8218,7 +8240,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B604">
         <v>0</v>
@@ -8226,7 +8248,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>274</v>
+        <v>615</v>
       </c>
       <c r="B605">
         <v>0</v>
@@ -8234,7 +8256,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="B606">
         <v>0</v>
@@ -8242,7 +8264,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B607">
         <v>0</v>
@@ -8250,7 +8272,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B608">
         <v>0</v>
@@ -8258,7 +8280,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="B609">
         <v>0</v>
@@ -8266,7 +8288,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="B610">
         <v>0</v>
@@ -8274,7 +8296,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="B611">
         <v>0</v>
@@ -8282,7 +8304,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="B612">
         <v>0</v>
@@ -8290,7 +8312,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="B613">
         <v>0</v>
@@ -8298,7 +8320,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="B614">
         <v>0</v>
@@ -8306,7 +8328,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="B615">
         <v>0</v>
@@ -8314,7 +8336,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="B616">
         <v>0</v>
@@ -8322,7 +8344,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="B617">
         <v>0</v>
@@ -8330,7 +8352,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="B618">
         <v>0</v>
@@ -8338,7 +8360,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="B619">
         <v>0</v>
@@ -8346,7 +8368,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="B620">
         <v>0</v>
@@ -8354,7 +8376,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="B621">
         <v>0</v>
@@ -8362,7 +8384,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="B622">
         <v>0</v>
@@ -8370,7 +8392,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="B623">
         <v>0</v>
@@ -8378,7 +8400,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="B624">
         <v>0</v>
@@ -8386,7 +8408,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="B625">
         <v>0</v>
@@ -8394,7 +8416,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="B626">
         <v>0</v>
@@ -8402,7 +8424,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="B627">
         <v>0</v>
@@ -8410,7 +8432,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="B628">
         <v>0</v>
@@ -8418,7 +8440,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="B629">
         <v>0</v>
@@ -8426,7 +8448,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="B630">
         <v>0</v>
@@ -8434,7 +8456,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="B631">
         <v>0</v>
@@ -8442,7 +8464,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B632">
         <v>0</v>
@@ -8450,7 +8472,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B633">
         <v>0</v>
@@ -8458,7 +8480,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B634">
         <v>0</v>
@@ -8466,7 +8488,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="B635">
         <v>0</v>
@@ -8474,7 +8496,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="B636">
         <v>0</v>
@@ -8482,7 +8504,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="B637">
         <v>0</v>
@@ -8490,7 +8512,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="B638">
         <v>0</v>
@@ -8498,7 +8520,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="B639">
         <v>0</v>
@@ -8506,7 +8528,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="B640">
         <v>0</v>
@@ -8514,7 +8536,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="B641">
         <v>0</v>
@@ -8522,7 +8544,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="B642">
         <v>0</v>
@@ -8530,7 +8552,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="B643">
         <v>0</v>
@@ -8538,7 +8560,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="B644">
         <v>0</v>
@@ -8546,7 +8568,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="B645">
         <v>0</v>
@@ -8554,7 +8576,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="B646">
         <v>0</v>
@@ -8562,7 +8584,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B647">
         <v>0</v>
@@ -8570,7 +8592,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="B648">
         <v>0</v>
@@ -8578,7 +8600,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="B649">
         <v>0</v>
@@ -8586,7 +8608,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="B650">
         <v>0</v>
@@ -8594,7 +8616,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="B651">
         <v>0</v>
@@ -8602,7 +8624,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="B652">
         <v>0</v>
@@ -8610,7 +8632,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="B653">
         <v>0</v>
@@ -8618,7 +8640,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="B654">
         <v>0</v>
@@ -8626,7 +8648,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="B655">
         <v>0</v>
@@ -8634,7 +8656,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="B656">
         <v>0</v>
@@ -8642,7 +8664,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="B657">
         <v>0</v>
@@ -8650,7 +8672,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="B658">
         <v>0</v>
@@ -8658,7 +8680,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="B659">
         <v>0</v>
@@ -8666,7 +8688,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="B660">
         <v>0</v>
@@ -8674,7 +8696,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="B661">
         <v>0</v>
@@ -8682,7 +8704,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="B662">
         <v>0</v>
@@ -8690,7 +8712,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="B663">
         <v>0</v>
@@ -8698,7 +8720,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>688</v>
+        <v>377</v>
       </c>
       <c r="B664">
         <v>0</v>
@@ -8706,7 +8728,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="B665">
         <v>0</v>
@@ -8714,7 +8736,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="B666">
         <v>0</v>
@@ -8722,7 +8744,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>392</v>
+        <v>675</v>
       </c>
       <c r="B667">
         <v>0</v>
@@ -8730,7 +8752,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="B668">
         <v>0</v>
@@ -8738,7 +8760,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="B669">
         <v>0</v>
@@ -8746,7 +8768,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="B670">
         <v>0</v>
@@ -8754,7 +8776,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="B671">
         <v>0</v>
@@ -8762,7 +8784,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="B672">
         <v>0</v>
@@ -8770,7 +8792,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="B673">
         <v>0</v>
@@ -8778,7 +8800,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="B674">
         <v>0</v>
@@ -8786,7 +8808,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="B675">
         <v>0</v>
@@ -8794,7 +8816,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="B676">
         <v>0</v>
@@ -8802,7 +8824,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="B677">
         <v>0</v>
@@ -8810,7 +8832,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="B678">
         <v>0</v>
@@ -8818,7 +8840,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="B679">
         <v>0</v>
@@ -8826,33 +8848,9 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="B680">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
-        <v>704</v>
-      </c>
-      <c r="B681">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
-        <v>705</v>
-      </c>
-      <c r="B682">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
-        <v>706</v>
-      </c>
-      <c r="B683">
         <v>0</v>
       </c>
     </row>
